--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/30/Output_10_37.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/30/Output_10_37.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>48394.90493091786</v>
+        <v>9630586.081252649</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>48394.90493091786</v>
+        <v>9630586.081252649</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1860.913792692712</v>
+        <v>113457.4375564172</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1860.913792692712</v>
+        <v>113457.4375564172</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1265575459.602534</v>
+        <v>51565486.89650437</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>10405.5604418974</v>
+        <v>1133785.877084823</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>20206.71995254307</v>
+        <v>2172771.935359213</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>30007.87946318873</v>
+        <v>3211757.993633604</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>40166.01267070403</v>
+        <v>4261617.894332238</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>50269.50345397689</v>
+        <v>5300603.95260663</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>60372.99423724975</v>
+        <v>6339590.01088102</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>70476.4850205226</v>
+        <v>7378576.069155406</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>80579.97580379546</v>
+        <v>8417562.127429795</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>91056.67940869329</v>
+        <v>9448860.425390642</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>101478.7405893487</v>
+        <v>10469284.88092725</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>111765.1374488132</v>
+        <v>11507953.19028358</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>121813.9858078436</v>
+        <v>12536065.40613374</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>131917.4765911165</v>
+        <v>13575051.46440814</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>142020.9673743894</v>
+        <v>14614037.52268253</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>152124.4581576622</v>
+        <v>15653023.58095693</v>
       </c>
     </row>
   </sheetData>
